--- a/data/case1/5/P2_11.xlsx
+++ b/data/case1/5/P2_11.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.17302840171176115</v>
+        <v>0.17532746519896136</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.009999999785119229</v>
+        <v>-0.0099999995554611587</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999997857539427</v>
+        <v>-0.0089999995563676549</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.20999999943104797</v>
+        <v>0.20999999883007092</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999997907898006</v>
+        <v>-0.0059999995664359318</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999997822970386</v>
+        <v>-0.0059999995485391366</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999743163244</v>
+        <v>-0.019999999468049978</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.04678747997931243</v>
+        <v>-0.048139182020049631</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999997786039927</v>
+        <v>-0.0059999995407382656</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999997781616798</v>
+        <v>-0.0059999995396182726</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999997821975057</v>
+        <v>-0.0044999995479706456</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999997780915137</v>
+        <v>-0.0059999995395481065</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999997785142867</v>
+        <v>-0.0059999995403128281</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999762404734</v>
+        <v>-0.011999999507151138</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.046377925500880046</v>
+        <v>0.045457563862300709</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999997788007242</v>
+        <v>-0.0059999995408310802</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.005999999777898779</v>
+        <v>-0.0059999995389210525</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999997694834022</v>
+        <v>-0.0089999995215999107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.04729423952329137</v>
+        <v>-0.047188376518308761</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999997856207159</v>
+        <v>-0.0089999995562397572</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999997853658087</v>
+        <v>-0.0089999995556766521</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999997851588631</v>
+        <v>-0.0089999995552707546</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999997839109724</v>
+        <v>-0.0089999995525884557</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999999689995349</v>
+        <v>-0.041999999359275009</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999999688363765</v>
+        <v>-0.041999999355874174</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.005999999781323595</v>
+        <v>-0.0059999995465958023</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999997801853944</v>
+        <v>-0.005999999544219925</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.005999999775355036</v>
+        <v>-0.00599999953410979</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999755651913</v>
+        <v>-0.011999999493504276</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999732194684</v>
+        <v>-0.019999999445131422</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999743599446</v>
+        <v>-0.014999999468427561</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999726768692</v>
+        <v>-0.0209999994337986</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999997677255834</v>
+        <v>-0.0059999995180826105</v>
       </c>
     </row>
   </sheetData>
